--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/5/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/5/LocalizationDef.xlsx
@@ -52,7 +52,7 @@
     <t>Eliminate any {TEAM_TAR.FactionDef.Demonym} defenders and secure the base, Commander. Oliveira out.</t>
   </si>
   <si>
-    <t>Подавите любое сопротивление {TEAM_TAR.FactionDef.Demonym} на территории базы, командир. Оливейра конец связи.</t>
+    <t>Подавите любое сопротивление {TEAM_TAR.FactionDef.Name} на территории базы, командир. Оливейра конец связи.</t>
   </si>
   <si>
     <t>CaptureBase_BargainingChip.dialogueList1.dialogueContent0.words</t>
@@ -160,7 +160,7 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Defenders</t>
   </si>
   <si>
-    <t>Уничтожьте оборонительные силы {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте оборонительные силы {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_BargainingChip.objectiveList2.title</t>
@@ -184,7 +184,7 @@
     <t>Hold the base until {TEAM_EMP.FactionDef.Demonym} Forces Arrive</t>
   </si>
   <si>
-    <t>Удерживайте базу до прибытия сил {TEAM_EMP.FactionDef.Demonym}</t>
+    <t>Удерживайте базу до прибытия сил {TEAM_EMP.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_BargainingChip.objectiveList4.description</t>
@@ -208,7 +208,7 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Reinforcements</t>
   </si>
   <si>
-    <t>Уничтожьте подкрепления {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте подкрепления {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_BargainingChip.objectiveList6.title</t>
@@ -226,7 +226,7 @@
     <t>Trade negotiations between {TEAM_EMP.FactionDef.Name} and {TEAM_TAR.FactionDef.Name} have broken down. We believe that if we capture and hold a {TEAM_TAR.FactionDef.Demonym} military base in the {TGT_SYSTEM.Name} system, we will be able to force them back to the negotiating table. Your job is to take the base and hold it until our forces can occupy it.</t>
   </si>
   <si>
-    <t>Торговые переговоры между {TEAM_EMP.FactionDef.Name} и {TEAM_TAR.FactionDef.Name} зашли в тупик. Мы считаем, что если {TEAM_TAR.FactionDef.Demonym} потеряют свою военную базу в системе {TGT_SYSTEM.Name}, это вынудит их снова сесть за стол переговоров. Ваша задача - захватить эту базу и удерживать до подхода наших войск.</t>
+    <t>Торговые переговоры между {TEAM_EMP.FactionDef.Name} и {TEAM_TAR.FactionDef.Name} зашли в тупик. Мы считаем, что если {TEAM_TAR.FactionDef.Name} потеряют свою военную базу в системе {TGT_SYSTEM.Name}, это вынудит их снова сесть за стол переговоров. Ваша задача - захватить эту базу и удерживать до подхода наших войск.</t>
   </si>
   <si>
     <t>CaptureBase_FormOfFlattery.contractName</t>
@@ -244,7 +244,7 @@
     <t>We're here to capture the {TEAM_TAR.FactionDef.Demonym} research station.</t>
   </si>
   <si>
-    <t>Мы здесь, чтобы захватить исследовательскую станцию ​​{TEAM_TAR.FactionDef.Demonym}.</t>
+    <t>Мы здесь, чтобы захватить исследовательскую станцию ​​{TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_FormOfFlattery.dialogueList0.dialogueContent1.words</t>
@@ -379,7 +379,7 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Forces</t>
   </si>
   <si>
-    <t>Уничтожьте силы обороны {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте силы обороны {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_FormOfFlattery.objectiveList2.title</t>
@@ -427,7 +427,7 @@
     <t>We have long suspected that there is a {TEAM_TAR.FactionDef.Demonym} research station hidden in the {TGT_SYSTEM.name} system, and we've finally gotten wind of its possible location. We need a few brave, and plausibly deniable, mercenaries to secure the location for a dropship extraction of any valuable scientific personnel.</t>
   </si>
   <si>
-    <t>Мы давно подозревали, что в системе {TGT_SYSTEM.name} находится секретная исследовательская станция {TEAM_TAR.FactionDef.Demonym}, и наконец узнали о ее возможном местонахождении. Нам нужно несколько смелых и молчаливых наемников, чтобы обезопасить это место для прилёта дропшипа и препроводить в него весь ценный научный персонал.</t>
+    <t>Мы давно подозревали, что в системе {TGT_SYSTEM.name} находится секретная исследовательская станция {TEAM_TAR.FactionDef.Name}, и наконец узнали о ее возможном местонахождении. Нам нужно несколько смелых и молчаливых наемников, чтобы обезопасить это место для прилёта дропшипа и препроводить в него весь ценный научный персонал.</t>
   </si>
   <si>
     <t>CaptureBase_ManufacturingFacility.contractName</t>
@@ -568,7 +568,7 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Garrison</t>
   </si>
   <si>
-    <t>Уничтожьте гарнизон {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте гарнизон {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_ManufacturingFacility.objectiveList2.title</t>
@@ -613,7 +613,7 @@
     <t>We've discovered that {TEAM_TAR.FactionDef.Name} has reactivated an old manufacturing facility in this system. To maintain the balance of power in this system, {TEAM_EMP.FactionDef.Name} needs to capture this facility. You'll make a surgical strike, occupy the base, and hold it until {TEAM_EMP.FactionDef.Demonym} forces can arrive to take control.</t>
   </si>
   <si>
-    <t>Мы обнаружили, что {TEAM_TAR.FactionDef.Name} повторно активировали старый производственный объект в этой системе. Чтобы сохранить баланс сил, {TEAM_EMP.FactionDef.Name} должны захватить этот объект. От вас требуется нанести хирургически точный удар, захватить базу и удерживать ее до прихода сил {TEAM_EMP.FactionDef.Demonym}.</t>
+    <t>Мы обнаружили, что {TEAM_TAR.FactionDef.Name} повторно активировали старый производственный объект в этой системе. Чтобы сохранить баланс сил, {TEAM_EMP.FactionDef.Name} должны захватить этот объект. От вас требуется нанести хирургически точный удар, захватить базу и удерживать ее до прихода сил {TEAM_EMP.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_Pirate_RipeForPicking.contractName</t>
@@ -718,7 +718,7 @@
     <t>I don't like the unspecified 'some cargo', Commander, but whatever it is, it's probably just as bad if left in {TEAM_TAR.FactionDef.Demonym} hands.</t>
   </si>
   <si>
-    <t>Ох не люблю я, когда в целях миссии числится «какой-то груз», командир. Но, чем бы он ни был, - пусть лучше он будет у нас, чем в руках {TEAM_TAR.FactionDef.Demonym}.</t>
+    <t>Ох не люблю я, когда в целях миссии числится «какой-то груз», командир. Но, чем бы он ни был, - пусть лучше он будет у нас, чем в руках {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_Pirate_RipeForPicking.objectiveList0.description</t>
@@ -820,7 +820,7 @@
     <t>I'm having a great day, Commander. You know why? I just got the latest logistics data from our friends down on {TGT_SYSTEM.name}. Turns out that the {TEAM_TAR.FactionDef.Demonym} base where they keep all the stuff they're planning to ship off planet? It's going to be full of some extremely valuable cargo. Things we'd like to get our hands on. You capture the base, we'll loot it, and we'll both get paid.</t>
   </si>
   <si>
-    <t>Чудный денёк, командор. А знаете почему? Я только что получил свежие данные о перевозках от наших друзей на {TGT_SYSTEM.name}. Оказывается все ценные грузы {TEAM_TAR.FactionDef.Demonym}, что планируется отправить с планеты, хранятся на одной конкретной базе. Ну разве не чудо? Там будет очень ценный груз. И мы хотим всё это «одолжить». Вы берёте базу, мы ее грабим, все будут в плюсе.</t>
+    <t>Чудный денёк, командор. А знаете почему? Я только что получил свежие данные о перевозках от наших друзей на {TGT_SYSTEM.name}. Оказывается все ценные грузы {TEAM_TAR.FactionDef.Name}, что планируется отправить с планеты, хранятся на одной конкретной базе. Ну разве не чудо? Там будет очень ценный груз. И мы хотим всё это «одолжить». Вы берёте базу, мы ее грабим, все будут в плюсе.</t>
   </si>
   <si>
     <t>CaptureBase_SurveillanceOutpost.contractName</t>
@@ -838,7 +838,7 @@
     <t>These are the coordinates we received from {TEAM_EMP.FactionDef.Demonym} intelligence.</t>
   </si>
   <si>
-    <t>Вот координаты, которые мы получили от разведки {TEAM_EMP.FactionDef.Demonym}.</t>
+    <t>Вот координаты, которые мы получили от разведки {TEAM_EMP.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_SurveillanceOutpost.dialogueList0.dialogueContent1.words</t>
@@ -1003,7 +1003,7 @@
     <t>Unremarkable, empty systems like this one are the perfect location for covert intelligence gathering operations. We believe there's a {TEAM_TAR.FactionDef.Demonym} facility here on {TGT_SYSTEM.Name} doing exactly that. Monitoring the pattern of DropShips making landings on the planet has led {TEAM_EMP.FactionDef.Demonym} analysts to a remote, apparently empty facility. Until just a few days ago, when we picked up the unmasked signature of a 'Mech's fusion engine powering up. That facility isn't empty, and we want the data stored there.</t>
   </si>
   <si>
-    <t>Ничем не примечательные пустые системы, подобные этой, - идеальное место для тайных операций по сбору разведданных. Мы полагаем, что здесь, на {TGT_SYSTEM.Name}, есть оборудование {TEAM_TAR.FactionDef.Demonym}, предназначенное именно для этого. Мониторинг передвижений грузовых кораблей привёл аналитиков {TEAM_EMP.FactionDef.Demonym} к отдалённому объекту, который все считали заброшенным. Ровно до тех пор, пока всего несколько дней назад мы не обнаружили явную сигнатуру включения термоядерного двигателя меха. Этот объект не заброшен и мы хотим получить данные, которые там хранятся.</t>
+    <t>Ничем не примечательные пустые системы, подобные этой, - идеальное место для тайных операций по сбору разведданных. Мы полагаем, что здесь, на {TGT_SYSTEM.Name}, есть оборудование {TEAM_TAR.FactionDef.Name}, предназначенное именно для этого. Мониторинг передвижений грузовых кораблей привёл аналитиков {TEAM_EMP.FactionDef.Name} к отдалённому объекту, который все считали заброшенным. Ровно до тех пор, пока всего несколько дней назад мы не обнаружили явную сигнатуру включения термоядерного двигателя меха. Этот объект не заброшен и мы хотим получить данные, которые там хранятся.</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1398,7 +1398,7 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1566,7 +1566,7 @@
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1608,7 +1608,7 @@
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1650,7 +1650,7 @@
       <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1706,7 +1706,7 @@
       <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2028,7 +2028,7 @@
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2308,7 +2308,7 @@
       <c r="B69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -2392,7 +2392,7 @@
       <c r="B75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3218,7 +3218,7 @@
       <c r="B134" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D134" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/5/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/5/LocalizationDef.xlsx
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="C54" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
